--- a/medicine/Psychotrope/Luchaxiang_yubing/Luchaxiang_yubing.xlsx
+++ b/medicine/Psychotrope/Luchaxiang_yubing/Luchaxiang_yubing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le lüchaxiang yubing (chinois : 绿茶香芋饼 ; pinyin : lǜchá xiāng yù bǐng ; litt. « gâteau de taro parfumé au thé vert ») ou encore lücha fobing (chinois simplifié : 绿茶佛饼 ; chinois traditionnel : 綠茶彿餅 ; pinyin : lǜchá fóbǐng ; litt. « gâteau de Bouddha au thé vert »), est un mets sucré de la cuisine du Hunan (湘菜, xiāngcài)[1].
+Le lüchaxiang yubing (chinois : 绿茶香芋饼 ; pinyin : lǜchá xiāng yù bǐng ; litt. « gâteau de taro parfumé au thé vert ») ou encore lücha fobing (chinois simplifié : 绿茶佛饼 ; chinois traditionnel : 綠茶彿餅 ; pinyin : lǜchá fóbǐng ; litt. « gâteau de Bouddha au thé vert »), est un mets sucré de la cuisine du Hunan (湘菜, xiāngcài).
 Il s'agit d'une pâtisserie à base de taro et farine de blé, parfumée au thé vert et sucrée, ayant la forme d'un disque épais, et autour de laquelle sont parsemées des graines de sésame.
 </t>
         </is>
